--- a/NformTester/NformTester/Keywordscripts/600.30.30.100_VerifyLabelProperties.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.100_VerifyLabelProperties.xlsx
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7434" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7434" uniqueCount="827">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3729,6 +3729,9 @@
   <si>
     <t>;Check the Label properties.</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormDefault_Label_Properties</t>
   </si>
 </sst>
 </file>
@@ -3969,91 +3972,7 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4780,14 +4699,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="6.125" customWidth="1"/>
     <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="59.625" customWidth="1"/>
@@ -5843,7 +5762,7 @@
         <v>785</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>824</v>
@@ -5867,7 +5786,7 @@
         <v>785</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>17</v>
